--- a/TEST/TESTCASE4KT.xlsx
+++ b/TEST/TESTCASE4KT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.palekhov\Downloads\NodeApiTEST\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59F5386-BA75-42A9-AB53-ACF3F918C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7EF37-7AEB-4D15-AC20-6768A7E6ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3660" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -288,12 +288,6 @@
     <t>Вид</t>
   </si>
   <si>
-    <t>Получить все заметки</t>
-  </si>
-  <si>
-    <t>HTTP 200. json со всеми заметками</t>
-  </si>
-  <si>
     <t>Получении заметки по ID</t>
   </si>
   <si>
@@ -330,10 +324,13 @@
     <t>Удаление заметки где вместо id строка</t>
   </si>
   <si>
-    <t>T-14</t>
-  </si>
-  <si>
     <t>Ошибка при создании заметки без контента</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>Прошёл</t>
   </si>
 </sst>
 </file>
@@ -516,9 +513,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -589,6 +583,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -879,7 +876,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,519 +893,532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="16" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>35</v>
       </c>
+      <c r="F2" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="E5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="C6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="F6" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="F10" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="D12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="8"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="4"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="4"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="4"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="4"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="4"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="4"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
